--- a/braph2/workflows/MultiplexMRI/MultiplexMRI_examples/xls/Group1_MRI_data_layer1.xlsx
+++ b/braph2/workflows/MultiplexMRI/MultiplexMRI_examples/xls/Group1_MRI_data_layer1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kise-my.sharepoint.com/personal/anna_canal_garcia_ki_se/Documents/Dokument/GitHub/Braph-2.0-Matlab/braph2/workflows/MultiplexMRI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kise-my.sharepoint.com/personal/anna_canal_garcia_ki_se/Documents/Dokument/GitHub/Braph-2.0-Matlab/braph2/workflows/MultiplexMRI/MultiplexMRI_examples/xls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_DE5CBECA8F79A8B36A3704F0FB5CC233402F0403" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EC60CB84-0ABF-422E-B5DD-9BA0ECFEA773}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="11_DE5CBECA8F79A8B36A3704F0FB5CC233402F0403" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B1BA64D7-7EB5-4CDC-AD7D-E06B6138E357}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
   <si>
     <t>ID</t>
   </si>
@@ -235,7 +235,37 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>notes</t>
+    <t>10</t>
+  </si>
+  <si>
+    <t>notes1</t>
+  </si>
+  <si>
+    <t>notes2</t>
+  </si>
+  <si>
+    <t>notes3</t>
+  </si>
+  <si>
+    <t>notes4</t>
+  </si>
+  <si>
+    <t>notes5</t>
+  </si>
+  <si>
+    <t>notes6</t>
+  </si>
+  <si>
+    <t>notes7</t>
+  </si>
+  <si>
+    <t>notes8</t>
+  </si>
+  <si>
+    <t>notes9</t>
+  </si>
+  <si>
+    <t>notes10</t>
   </si>
 </sst>
 </file>
@@ -646,7 +676,7 @@
   <dimension ref="A1:BS11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -868,13 +898,13 @@
     </row>
     <row r="2" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2">
         <v>0.43000467331988951</v>
@@ -1083,13 +1113,13 @@
     </row>
     <row r="3" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D3">
         <v>0.31130251520430008</v>
@@ -1298,13 +1328,13 @@
     </row>
     <row r="4" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D4">
         <v>0.91359318452163385</v>
@@ -1513,13 +1543,13 @@
     </row>
     <row r="5" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D5">
         <v>8.1418585823363254E-2</v>
@@ -1728,13 +1758,13 @@
     </row>
     <row r="6" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D6">
         <v>0.46809505230837589</v>
@@ -1943,13 +1973,13 @@
     </row>
     <row r="7" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D7">
         <v>0.62042601063254166</v>
@@ -2158,13 +2188,13 @@
     </row>
     <row r="8" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D8">
         <v>7.0254307432461296E-3</v>
@@ -2373,13 +2403,13 @@
     </row>
     <row r="9" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D9">
         <v>0.47140076417359378</v>
@@ -2588,13 +2618,13 @@
     </row>
     <row r="10" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D10">
         <v>0.53487850648318458</v>
@@ -2802,14 +2832,14 @@
       </c>
     </row>
     <row r="11" spans="1:71" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3">
-        <v>9</v>
+      <c r="A11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D11">
         <v>0.63893515600733652</v>

--- a/braph2/workflows/MultiplexMRI/MultiplexMRI_examples/xls/Group1_MRI_data_layer1.xlsx
+++ b/braph2/workflows/MultiplexMRI/MultiplexMRI_examples/xls/Group1_MRI_data_layer1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kise-my.sharepoint.com/personal/anna_canal_garcia_ki_se/Documents/Dokument/GitHub/Braph-2.0-Matlab/braph2/workflows/MultiplexMRI/MultiplexMRI_examples/xls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="11_DE5CBECA8F79A8B36A3704F0FB5CC233402F0403" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{954104D7-2035-4C06-80EC-D8F651E1803B}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="11_DE5CBECA8F79A8B36A3704F0FB5CC233402F0403" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{859D4E17-26BB-43F2-B65C-6221503407CB}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5280" yWindow="3366" windowWidth="17280" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>label5</t>
+  </si>
+  <si>
+    <t>GroupName1</t>
+  </si>
+  <si>
+    <t>TestGroup1</t>
   </si>
 </sst>
 </file>
@@ -120,7 +126,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -143,21 +149,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -513,158 +550,173 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="3" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="D5" s="6">
         <v>0.43000467331988951</v>
       </c>
-      <c r="E2">
+      <c r="E5" s="6">
         <v>0.65490382952172232</v>
       </c>
-      <c r="F2">
+      <c r="F5" s="6">
         <v>0.30418773603214089</v>
       </c>
-      <c r="G2">
+      <c r="G5" s="6">
         <v>0.52667284701719508</v>
       </c>
-      <c r="H2">
+      <c r="H5" s="6">
         <v>0.85281583958013496</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3">
+      <c r="D6" s="6">
         <v>0.31130251520430008</v>
       </c>
-      <c r="E3">
+      <c r="E6" s="6">
         <v>0.36142399295541372</v>
       </c>
-      <c r="F3">
+      <c r="F6" s="6">
         <v>0.96695450155887075</v>
       </c>
-      <c r="G3">
+      <c r="G6" s="6">
         <v>0.52798210883681473</v>
       </c>
-      <c r="H3">
+      <c r="H6" s="6">
         <v>0.42682426853342798</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="3" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="D7" s="6">
         <v>0.91359318452163385</v>
       </c>
-      <c r="E4">
+      <c r="E7" s="6">
         <v>0.2362056534429996</v>
       </c>
-      <c r="F4">
+      <c r="F7" s="6">
         <v>0.19150388628678011</v>
       </c>
-      <c r="G4">
+      <c r="G7" s="6">
         <v>3.9141851246586312E-2</v>
       </c>
-      <c r="H4">
+      <c r="H7" s="6">
         <v>0.1655251701422</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="3" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5">
+      <c r="D8" s="6">
         <v>8.1418585823363254E-2</v>
       </c>
-      <c r="E5">
+      <c r="E8" s="6">
         <v>0.1215605957648395</v>
       </c>
-      <c r="F5">
+      <c r="F8" s="6">
         <v>0.55420908911480915</v>
       </c>
-      <c r="G5">
+      <c r="G8" s="6">
         <v>0.39027651644156969</v>
       </c>
-      <c r="H5">
+      <c r="H8" s="6">
         <v>0.51846463051859071</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="3" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6">
+      <c r="D9" s="6">
         <v>0.46809505230837589</v>
       </c>
-      <c r="E6">
+      <c r="E9" s="6">
         <v>1.7335137752102488E-2</v>
       </c>
-      <c r="F6">
+      <c r="F9" s="6">
         <v>0.1985621662546927</v>
       </c>
-      <c r="G6">
+      <c r="G9" s="6">
         <v>0.22059352318618969</v>
       </c>
-      <c r="H6">
+      <c r="H9" s="6">
         <v>0.46878005714078519</v>
       </c>
     </row>
